--- a/GBFS/CaBi-Cherry Blossoms Data.xlsx
+++ b/GBFS/CaBi-Cherry Blossoms Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
   <si>
     <t>station name</t>
   </si>
@@ -46,70 +46,70 @@
     <t>hour</t>
   </si>
   <si>
+    <t>Maine Ave &amp; 9th St SW</t>
+  </si>
+  <si>
+    <t>Hains Point/Buckeye &amp; Ohio Dr SW</t>
+  </si>
+  <si>
+    <t>Ohio Dr &amp; West Basin Dr SW / MLK &amp; FDR Memorials</t>
+  </si>
+  <si>
+    <t>Maine Ave &amp; 7th St SW</t>
+  </si>
+  <si>
+    <t>17th St &amp; Independence Ave SW</t>
+  </si>
+  <si>
+    <t>10th St &amp; L'Enfant Plaza SW</t>
+  </si>
+  <si>
+    <t>Jefferson Memorial</t>
+  </si>
+  <si>
+    <t>Jefferson Dr &amp; 14th St SW</t>
+  </si>
+  <si>
+    <t>Henry Bacon Dr &amp; Lincoln Memorial Circle NW</t>
+  </si>
+  <si>
+    <t>USDA / 12th &amp; C St SW</t>
+  </si>
+  <si>
     <t>Lincoln Memorial</t>
   </si>
   <si>
-    <t>10th St &amp; L'Enfant Plaza SW</t>
-  </si>
-  <si>
-    <t>Henry Bacon Dr &amp; Lincoln Memorial Circle NW</t>
-  </si>
-  <si>
-    <t>Jefferson Dr &amp; 14th St SW</t>
-  </si>
-  <si>
-    <t>Jefferson Memorial</t>
-  </si>
-  <si>
-    <t>17th St &amp; Independence Ave SW</t>
-  </si>
-  <si>
-    <t>USDA / 12th &amp; C St SW</t>
-  </si>
-  <si>
-    <t>Ohio Dr &amp; West Basin Dr SW / MLK &amp; FDR Memorials</t>
-  </si>
-  <si>
-    <t>Hains Point/Buckeye &amp; Ohio Dr SW</t>
-  </si>
-  <si>
-    <t>Maine Ave &amp; 7th St SW</t>
-  </si>
-  <si>
-    <t>Maine Ave &amp; 9th St SW</t>
+    <t>f33b7c9d-11ff-4059-94e4-4a1206acd7a6</t>
+  </si>
+  <si>
+    <t>0825bb32-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>0824e68d-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>0824a68f-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>082623bf-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>08261d9d-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>082527e7-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>08252260-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>0826233f-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>08249b7f-1f3f-11e7-bf6b-3863bb334450</t>
   </si>
   <si>
     <t>08254284-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>08261d9d-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>0826233f-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>08252260-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>082527e7-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>082623bf-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>08249b7f-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>0824e68d-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>0825bb32-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>0824a68f-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>f33b7c9d-11ff-4059-94e4-4a1206acd7a6</t>
   </si>
   <si>
     <t>2024-03-22</t>
@@ -470,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,28 +516,28 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>38.888255</v>
+        <v>38.88044</v>
       </c>
       <c r="H2">
-        <v>-77.049437</v>
+        <v>-77.02523600000001</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -548,28 +548,28 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>38.884323</v>
+        <v>38.878433</v>
       </c>
       <c r="H3">
-        <v>-77.02601</v>
+        <v>-77.03023</v>
       </c>
       <c r="I3" t="s">
         <v>32</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -580,28 +580,28 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>38.890539</v>
+        <v>38.88412</v>
       </c>
       <c r="H4">
-        <v>-77.04938300000001</v>
+        <v>-77.04657</v>
       </c>
       <c r="I4" t="s">
         <v>32</v>
       </c>
       <c r="J4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -612,28 +612,28 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>38.888553</v>
+        <v>38.878694</v>
       </c>
       <c r="H5">
-        <v>-77.032427</v>
+        <v>-77.023054</v>
       </c>
       <c r="I5" t="s">
         <v>32</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -644,28 +644,28 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>38.879819</v>
+        <v>38.888097</v>
       </c>
       <c r="H6">
-        <v>-77.037413</v>
+        <v>-77.038325</v>
       </c>
       <c r="I6" t="s">
         <v>32</v>
       </c>
       <c r="J6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -676,28 +676,28 @@
         <v>26</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>38.888097</v>
+        <v>38.884323</v>
       </c>
       <c r="H7">
-        <v>-77.038325</v>
+        <v>-77.02601</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
       </c>
       <c r="J7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -708,28 +708,28 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>38.886277</v>
+        <v>38.879819</v>
       </c>
       <c r="H8">
-        <v>-77.02824200000001</v>
+        <v>-77.037413</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
       </c>
       <c r="J8">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -740,28 +740,28 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>38.88412</v>
+        <v>38.888553</v>
       </c>
       <c r="H9">
-        <v>-77.04657</v>
+        <v>-77.032427</v>
       </c>
       <c r="I9" t="s">
         <v>32</v>
       </c>
       <c r="J9">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -772,28 +772,28 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>38.878433</v>
+        <v>38.890539</v>
       </c>
       <c r="H10">
-        <v>-77.03023</v>
+        <v>-77.04938300000001</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
       </c>
       <c r="J10">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -804,28 +804,28 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>47</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="E11">
+      <c r="G11">
+        <v>38.886277</v>
+      </c>
+      <c r="H11">
+        <v>-77.02824200000001</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11">
         <v>14</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>38.878694</v>
-      </c>
-      <c r="H11">
-        <v>-77.023054</v>
-      </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -836,28 +836,28 @@
         <v>31</v>
       </c>
       <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
         <v>15</v>
       </c>
-      <c r="D12">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>9</v>
-      </c>
       <c r="F12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>38.88044</v>
+        <v>38.888255</v>
       </c>
       <c r="H12">
-        <v>-77.02523600000001</v>
+        <v>-77.049437</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
       </c>
       <c r="J12">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -868,540 +868,540 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>38.88044</v>
+        <v>38.888255</v>
       </c>
       <c r="H13">
-        <v>-77.02523600000001</v>
+        <v>-77.049437</v>
       </c>
       <c r="I13" t="s">
         <v>32</v>
       </c>
       <c r="J13">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>38.878433</v>
+        <v>38.884323</v>
       </c>
       <c r="H14">
-        <v>-77.03023</v>
+        <v>-77.02601</v>
       </c>
       <c r="I14" t="s">
         <v>32</v>
       </c>
       <c r="J14">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>21</v>
-      </c>
       <c r="D15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15">
-        <v>38.878694</v>
+        <v>38.890539</v>
       </c>
       <c r="H15">
-        <v>-77.023054</v>
+        <v>-77.04938300000001</v>
       </c>
       <c r="I15" t="s">
         <v>32</v>
       </c>
       <c r="J15">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>38.886277</v>
+        <v>38.888553</v>
       </c>
       <c r="H16">
-        <v>-77.02824200000001</v>
+        <v>-77.032427</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
       </c>
       <c r="J16">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>21</v>
       </c>
-      <c r="C17">
-        <v>25</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>22</v>
-      </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>38.888255</v>
+        <v>38.879819</v>
       </c>
       <c r="H17">
-        <v>-77.049437</v>
+        <v>-77.037413</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
       </c>
       <c r="J17">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>38.884323</v>
+        <v>38.888097</v>
       </c>
       <c r="H18">
-        <v>-77.02601</v>
+        <v>-77.038325</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
       </c>
       <c r="J18">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>38.888097</v>
+        <v>38.886277</v>
       </c>
       <c r="H19">
-        <v>-77.038325</v>
+        <v>-77.02824200000001</v>
       </c>
       <c r="I19" t="s">
         <v>32</v>
       </c>
       <c r="J19">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>31</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>38.88412</v>
+      </c>
+      <c r="H20">
+        <v>-77.04657</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20">
         <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20">
-        <v>23</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>23</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>38.888553</v>
-      </c>
-      <c r="H20">
-        <v>-77.032427</v>
-      </c>
-      <c r="I20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20">
-        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>38.879819</v>
+        <v>38.878433</v>
       </c>
       <c r="H21">
-        <v>-77.037413</v>
+        <v>-77.03023</v>
       </c>
       <c r="I21" t="s">
         <v>32</v>
       </c>
       <c r="J21">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>38.890539</v>
+        <v>38.878694</v>
       </c>
       <c r="H22">
-        <v>-77.04938300000001</v>
+        <v>-77.023054</v>
       </c>
       <c r="I22" t="s">
         <v>32</v>
       </c>
       <c r="J22">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>38.88412</v>
+        <v>38.88044</v>
       </c>
       <c r="H23">
-        <v>-77.04657</v>
+        <v>-77.02523600000001</v>
       </c>
       <c r="I23" t="s">
         <v>32</v>
       </c>
       <c r="J23">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>38.878433</v>
+        <v>38.88044</v>
       </c>
       <c r="H24">
-        <v>-77.03023</v>
+        <v>-77.02523600000001</v>
       </c>
       <c r="I24" t="s">
         <v>32</v>
       </c>
       <c r="J24">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>38.878694</v>
+        <v>38.878433</v>
       </c>
       <c r="H25">
-        <v>-77.023054</v>
+        <v>-77.03023</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
       </c>
       <c r="J25">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>38.884323</v>
+        <v>38.878694</v>
       </c>
       <c r="H26">
-        <v>-77.02601</v>
+        <v>-77.023054</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
       </c>
       <c r="J26">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G27">
-        <v>38.888255</v>
+        <v>38.886277</v>
       </c>
       <c r="H27">
-        <v>-77.049437</v>
+        <v>-77.02824200000001</v>
       </c>
       <c r="I27" t="s">
         <v>32</v>
       </c>
       <c r="J27">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>38.888255</v>
+      </c>
+      <c r="H28">
+        <v>-77.049437</v>
+      </c>
+      <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28">
         <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28">
-        <v>19</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-      <c r="E28">
-        <v>12</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>38.890539</v>
-      </c>
-      <c r="H28">
-        <v>-77.04938300000001</v>
-      </c>
-      <c r="I28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28">
-        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E29">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>38.886277</v>
+        <v>38.884323</v>
       </c>
       <c r="H29">
-        <v>-77.02824200000001</v>
+        <v>-77.02601</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
       </c>
       <c r="J29">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1412,28 +1412,28 @@
         <v>25</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>38.879819</v>
+        <v>38.888097</v>
       </c>
       <c r="H30">
-        <v>-77.037413</v>
+        <v>-77.038325</v>
       </c>
       <c r="I30" t="s">
         <v>32</v>
       </c>
       <c r="J30">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1444,36 +1444,36 @@
         <v>28</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>38.88412</v>
+        <v>38.888553</v>
       </c>
       <c r="H31">
-        <v>-77.04657</v>
+        <v>-77.032427</v>
       </c>
       <c r="I31" t="s">
         <v>32</v>
       </c>
       <c r="J31">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C32">
         <v>23</v>
@@ -1482,85 +1482,437 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>38.888553</v>
+        <v>38.879819</v>
       </c>
       <c r="H32">
-        <v>-77.032427</v>
+        <v>-77.037413</v>
       </c>
       <c r="I32" t="s">
         <v>32</v>
       </c>
       <c r="J32">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33">
         <v>5</v>
       </c>
       <c r="G33">
-        <v>38.888097</v>
+        <v>38.890539</v>
       </c>
       <c r="H33">
-        <v>-77.038325</v>
+        <v>-77.04938300000001</v>
       </c>
       <c r="I33" t="s">
         <v>32</v>
       </c>
       <c r="J33">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>38.88412</v>
+      </c>
+      <c r="H34">
+        <v>-77.04657</v>
+      </c>
+      <c r="I34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>14</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>38.878433</v>
+      </c>
+      <c r="H35">
+        <v>-77.03023</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>19</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>38.878694</v>
+      </c>
+      <c r="H36">
+        <v>-77.023054</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>22</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>38.884323</v>
+      </c>
+      <c r="H37">
+        <v>-77.02601</v>
+      </c>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
         <v>20</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
         <v>31</v>
       </c>
-      <c r="C34">
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>24</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>38.888255</v>
+      </c>
+      <c r="H38">
+        <v>-77.049437</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>12</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>38.890539</v>
+      </c>
+      <c r="H39">
+        <v>-77.04938300000001</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>47</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>45</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>38.886277</v>
+      </c>
+      <c r="H40">
+        <v>-77.02824200000001</v>
+      </c>
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>21</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>38.879819</v>
+      </c>
+      <c r="H41">
+        <v>-77.037413</v>
+      </c>
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>31</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>28</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>38.88412</v>
+      </c>
+      <c r="H42">
+        <v>-77.04657</v>
+      </c>
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>23</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>38.888553</v>
+      </c>
+      <c r="H43">
+        <v>-77.032427</v>
+      </c>
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>38.888097</v>
+      </c>
+      <c r="H44">
+        <v>-77.038325</v>
+      </c>
+      <c r="I44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45">
         <v>15</v>
       </c>
-      <c r="D34">
+      <c r="D45">
         <v>11</v>
       </c>
-      <c r="E34">
+      <c r="E45">
         <v>4</v>
       </c>
-      <c r="F34">
+      <c r="F45">
         <v>1</v>
       </c>
-      <c r="G34">
+      <c r="G45">
         <v>38.88044</v>
       </c>
-      <c r="H34">
+      <c r="H45">
         <v>-77.02523600000001</v>
       </c>
-      <c r="I34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34">
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45">
         <v>11</v>
       </c>
     </row>

--- a/GBFS/CaBi-Cherry Blossoms Data.xlsx
+++ b/GBFS/CaBi-Cherry Blossoms Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="33">
   <si>
     <t>station name</t>
   </si>
@@ -46,70 +46,70 @@
     <t>hour</t>
   </si>
   <si>
+    <t>Maine Ave &amp; 7th St SW</t>
+  </si>
+  <si>
+    <t>Hains Point/Buckeye &amp; Ohio Dr SW</t>
+  </si>
+  <si>
+    <t>Jefferson Memorial</t>
+  </si>
+  <si>
+    <t>USDA / 12th &amp; C St SW</t>
+  </si>
+  <si>
+    <t>Ohio Dr &amp; West Basin Dr SW / MLK &amp; FDR Memorials</t>
+  </si>
+  <si>
+    <t>Jefferson Dr &amp; 14th St SW</t>
+  </si>
+  <si>
+    <t>Henry Bacon Dr &amp; Lincoln Memorial Circle NW</t>
+  </si>
+  <si>
     <t>Maine Ave &amp; 9th St SW</t>
   </si>
   <si>
-    <t>Hains Point/Buckeye &amp; Ohio Dr SW</t>
-  </si>
-  <si>
-    <t>Ohio Dr &amp; West Basin Dr SW / MLK &amp; FDR Memorials</t>
-  </si>
-  <si>
-    <t>Maine Ave &amp; 7th St SW</t>
+    <t>Lincoln Memorial</t>
+  </si>
+  <si>
+    <t>10th St &amp; L'Enfant Plaza SW</t>
   </si>
   <si>
     <t>17th St &amp; Independence Ave SW</t>
   </si>
   <si>
-    <t>10th St &amp; L'Enfant Plaza SW</t>
-  </si>
-  <si>
-    <t>Jefferson Memorial</t>
-  </si>
-  <si>
-    <t>Jefferson Dr &amp; 14th St SW</t>
-  </si>
-  <si>
-    <t>Henry Bacon Dr &amp; Lincoln Memorial Circle NW</t>
-  </si>
-  <si>
-    <t>USDA / 12th &amp; C St SW</t>
-  </si>
-  <si>
-    <t>Lincoln Memorial</t>
+    <t>0824a68f-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>0825bb32-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>082527e7-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>08249b7f-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>0824e68d-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>08252260-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>0826233f-1f3f-11e7-bf6b-3863bb334450</t>
   </si>
   <si>
     <t>f33b7c9d-11ff-4059-94e4-4a1206acd7a6</t>
   </si>
   <si>
-    <t>0825bb32-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>0824e68d-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>0824a68f-1f3f-11e7-bf6b-3863bb334450</t>
+    <t>08254284-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>08261d9d-1f3f-11e7-bf6b-3863bb334450</t>
   </si>
   <si>
     <t>082623bf-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>08261d9d-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>082527e7-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>08252260-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>0826233f-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>08249b7f-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>08254284-1f3f-11e7-bf6b-3863bb334450</t>
   </si>
   <si>
     <t>2024-03-22</t>
@@ -470,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,28 +516,28 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>38.88044</v>
+        <v>38.878694</v>
       </c>
       <c r="H2">
-        <v>-77.02523600000001</v>
+        <v>-77.023054</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -551,13 +551,13 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>38.878433</v>
@@ -569,7 +569,7 @@
         <v>32</v>
       </c>
       <c r="J3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -580,28 +580,28 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>38.88412</v>
+        <v>38.879819</v>
       </c>
       <c r="H4">
-        <v>-77.04657</v>
+        <v>-77.037413</v>
       </c>
       <c r="I4" t="s">
         <v>32</v>
       </c>
       <c r="J4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -612,28 +612,28 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>45</v>
+      </c>
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
       <c r="G5">
-        <v>38.878694</v>
+        <v>38.886277</v>
       </c>
       <c r="H5">
-        <v>-77.023054</v>
+        <v>-77.02824200000001</v>
       </c>
       <c r="I5" t="s">
         <v>32</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -644,28 +644,28 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>38.888097</v>
+        <v>38.88412</v>
       </c>
       <c r="H6">
-        <v>-77.038325</v>
+        <v>-77.04657</v>
       </c>
       <c r="I6" t="s">
         <v>32</v>
       </c>
       <c r="J6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -679,25 +679,25 @@
         <v>23</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>38.884323</v>
+        <v>38.888553</v>
       </c>
       <c r="H7">
-        <v>-77.02601</v>
+        <v>-77.032427</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
       </c>
       <c r="J7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -708,28 +708,28 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8">
-        <v>38.879819</v>
+        <v>38.890539</v>
       </c>
       <c r="H8">
-        <v>-77.037413</v>
+        <v>-77.04938300000001</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
       </c>
       <c r="J8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -740,28 +740,28 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>38.888553</v>
+        <v>38.88044</v>
       </c>
       <c r="H9">
-        <v>-77.032427</v>
+        <v>-77.02523600000001</v>
       </c>
       <c r="I9" t="s">
         <v>32</v>
       </c>
       <c r="J9">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -772,28 +772,28 @@
         <v>29</v>
       </c>
       <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
         <v>19</v>
       </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>38.890539</v>
+        <v>38.888255</v>
       </c>
       <c r="H10">
-        <v>-77.04938300000001</v>
+        <v>-77.049437</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
       </c>
       <c r="J10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -804,28 +804,28 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>38.886277</v>
+        <v>38.884323</v>
       </c>
       <c r="H11">
-        <v>-77.02824200000001</v>
+        <v>-77.02601</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -836,316 +836,316 @@
         <v>31</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>38.888255</v>
+        <v>38.888097</v>
       </c>
       <c r="H12">
-        <v>-77.049437</v>
+        <v>-77.038325</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
       </c>
       <c r="J12">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>38.888255</v>
+        <v>38.88044</v>
       </c>
       <c r="H13">
-        <v>-77.049437</v>
+        <v>-77.02523600000001</v>
       </c>
       <c r="I13" t="s">
         <v>32</v>
       </c>
       <c r="J13">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>38.884323</v>
+        <v>38.878433</v>
       </c>
       <c r="H14">
-        <v>-77.02601</v>
+        <v>-77.03023</v>
       </c>
       <c r="I14" t="s">
         <v>32</v>
       </c>
       <c r="J14">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>38.890539</v>
+        <v>38.88412</v>
       </c>
       <c r="H15">
-        <v>-77.04938300000001</v>
+        <v>-77.04657</v>
       </c>
       <c r="I15" t="s">
         <v>32</v>
       </c>
       <c r="J15">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>38.888553</v>
+        <v>38.878694</v>
       </c>
       <c r="H16">
-        <v>-77.032427</v>
+        <v>-77.023054</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
       </c>
       <c r="J16">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17">
-        <v>23</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>21</v>
-      </c>
       <c r="F17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>38.879819</v>
+        <v>38.888097</v>
       </c>
       <c r="H17">
-        <v>-77.037413</v>
+        <v>-77.038325</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
       </c>
       <c r="J17">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>38.884323</v>
+      </c>
+      <c r="H18">
+        <v>-77.02601</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18">
         <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>17</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18">
-        <v>38.888097</v>
-      </c>
-      <c r="H18">
-        <v>-77.038325</v>
-      </c>
-      <c r="I18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18">
-        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>38.886277</v>
+        <v>38.879819</v>
       </c>
       <c r="H19">
-        <v>-77.02824200000001</v>
+        <v>-77.037413</v>
       </c>
       <c r="I19" t="s">
         <v>32</v>
       </c>
       <c r="J19">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
         <v>23</v>
       </c>
-      <c r="C20">
-        <v>31</v>
-      </c>
       <c r="D20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>38.88412</v>
+        <v>38.888553</v>
       </c>
       <c r="H20">
-        <v>-77.04657</v>
+        <v>-77.032427</v>
       </c>
       <c r="I20" t="s">
         <v>32</v>
       </c>
       <c r="J20">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>38.878433</v>
+        <v>38.890539</v>
       </c>
       <c r="H21">
-        <v>-77.03023</v>
+        <v>-77.04938300000001</v>
       </c>
       <c r="I21" t="s">
         <v>32</v>
       </c>
       <c r="J21">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1156,540 +1156,540 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>47</v>
+      </c>
+      <c r="F22">
         <v>6</v>
       </c>
-      <c r="E22">
+      <c r="G22">
+        <v>38.886277</v>
+      </c>
+      <c r="H22">
+        <v>-77.02824200000001</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22">
         <v>14</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>38.878694</v>
-      </c>
-      <c r="H22">
-        <v>-77.023054</v>
-      </c>
-      <c r="I22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22">
-        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>38.88044</v>
+        <v>38.888255</v>
       </c>
       <c r="H23">
-        <v>-77.02523600000001</v>
+        <v>-77.049437</v>
       </c>
       <c r="I23" t="s">
         <v>32</v>
       </c>
       <c r="J23">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>38.88044</v>
+        <v>38.888255</v>
       </c>
       <c r="H24">
-        <v>-77.02523600000001</v>
+        <v>-77.049437</v>
       </c>
       <c r="I24" t="s">
         <v>32</v>
       </c>
       <c r="J24">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
         <v>11</v>
       </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25">
-        <v>17</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>14</v>
-      </c>
       <c r="F25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>38.878433</v>
+        <v>38.884323</v>
       </c>
       <c r="H25">
-        <v>-77.03023</v>
+        <v>-77.02601</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
       </c>
       <c r="J25">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26">
-        <v>38.878694</v>
+        <v>38.890539</v>
       </c>
       <c r="H26">
-        <v>-77.023054</v>
+        <v>-77.04938300000001</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
       </c>
       <c r="J26">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>38.886277</v>
+        <v>38.888553</v>
       </c>
       <c r="H27">
-        <v>-77.02824200000001</v>
+        <v>-77.032427</v>
       </c>
       <c r="I27" t="s">
         <v>32</v>
       </c>
       <c r="J27">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>38.888255</v>
+        <v>38.879819</v>
       </c>
       <c r="H28">
-        <v>-77.049437</v>
+        <v>-77.037413</v>
       </c>
       <c r="I28" t="s">
         <v>32</v>
       </c>
       <c r="J28">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>38.884323</v>
+        <v>38.888097</v>
       </c>
       <c r="H29">
-        <v>-77.02601</v>
+        <v>-77.038325</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
       </c>
       <c r="J29">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>38.888097</v>
+        <v>38.886277</v>
       </c>
       <c r="H30">
-        <v>-77.038325</v>
+        <v>-77.02824200000001</v>
       </c>
       <c r="I30" t="s">
         <v>32</v>
       </c>
       <c r="J30">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31">
-        <v>38.888553</v>
+        <v>38.88412</v>
       </c>
       <c r="H31">
-        <v>-77.032427</v>
+        <v>-77.04657</v>
       </c>
       <c r="I31" t="s">
         <v>32</v>
       </c>
       <c r="J31">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>38.879819</v>
+        <v>38.878433</v>
       </c>
       <c r="H32">
-        <v>-77.037413</v>
+        <v>-77.03023</v>
       </c>
       <c r="I32" t="s">
         <v>32</v>
       </c>
       <c r="J32">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>38.890539</v>
+        <v>38.878694</v>
       </c>
       <c r="H33">
-        <v>-77.04938300000001</v>
+        <v>-77.023054</v>
       </c>
       <c r="I33" t="s">
         <v>32</v>
       </c>
       <c r="J33">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E34">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>38.88412</v>
+        <v>38.88044</v>
       </c>
       <c r="H34">
-        <v>-77.04657</v>
+        <v>-77.02523600000001</v>
       </c>
       <c r="I34" t="s">
         <v>32</v>
       </c>
       <c r="J34">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>38.878433</v>
+        <v>38.88044</v>
       </c>
       <c r="H35">
-        <v>-77.03023</v>
+        <v>-77.02523600000001</v>
       </c>
       <c r="I35" t="s">
         <v>32</v>
       </c>
       <c r="J35">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>38.878694</v>
+        <v>38.878433</v>
       </c>
       <c r="H36">
-        <v>-77.023054</v>
+        <v>-77.03023</v>
       </c>
       <c r="I36" t="s">
         <v>32</v>
       </c>
       <c r="J36">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>38.884323</v>
+        <v>38.878694</v>
       </c>
       <c r="H37">
-        <v>-77.02601</v>
+        <v>-77.023054</v>
       </c>
       <c r="I37" t="s">
         <v>32</v>
       </c>
       <c r="J37">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G38">
-        <v>38.888255</v>
+        <v>38.886277</v>
       </c>
       <c r="H38">
-        <v>-77.049437</v>
+        <v>-77.02824200000001</v>
       </c>
       <c r="I38" t="s">
         <v>32</v>
       </c>
       <c r="J38">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1700,28 +1700,28 @@
         <v>29</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E39">
+        <v>22</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>38.888255</v>
+      </c>
+      <c r="H39">
+        <v>-77.049437</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39">
         <v>12</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>38.890539</v>
-      </c>
-      <c r="H39">
-        <v>-77.04938300000001</v>
-      </c>
-      <c r="I39" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39">
-        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1732,100 +1732,100 @@
         <v>30</v>
       </c>
       <c r="C40">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G40">
-        <v>38.886277</v>
+        <v>38.884323</v>
       </c>
       <c r="H40">
-        <v>-77.02824200000001</v>
+        <v>-77.02601</v>
       </c>
       <c r="I40" t="s">
         <v>32</v>
       </c>
       <c r="J40">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41">
+        <v>18</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
         <v>16</v>
       </c>
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41">
-        <v>23</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>21</v>
-      </c>
       <c r="F41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G41">
-        <v>38.879819</v>
+        <v>38.888097</v>
       </c>
       <c r="H41">
-        <v>-77.037413</v>
+        <v>-77.038325</v>
       </c>
       <c r="I41" t="s">
         <v>32</v>
       </c>
       <c r="J41">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>23</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>38.888553</v>
+      </c>
+      <c r="H42">
+        <v>-77.032427</v>
+      </c>
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42">
         <v>12</v>
-      </c>
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42">
-        <v>31</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42">
-        <v>28</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>38.88412</v>
-      </c>
-      <c r="H42">
-        <v>-77.04657</v>
-      </c>
-      <c r="I42" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42">
-        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C43">
         <v>23</v>
@@ -1834,85 +1834,437 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>38.888553</v>
+        <v>38.879819</v>
       </c>
       <c r="H43">
-        <v>-77.032427</v>
+        <v>-77.037413</v>
       </c>
       <c r="I43" t="s">
         <v>32</v>
       </c>
       <c r="J43">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F44">
         <v>5</v>
       </c>
       <c r="G44">
-        <v>38.888097</v>
+        <v>38.890539</v>
       </c>
       <c r="H44">
-        <v>-77.038325</v>
+        <v>-77.04938300000001</v>
       </c>
       <c r="I44" t="s">
         <v>32</v>
       </c>
       <c r="J44">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <v>31</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>30</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>38.88412</v>
+      </c>
+      <c r="H45">
+        <v>-77.04657</v>
+      </c>
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>38.878433</v>
+      </c>
+      <c r="H46">
+        <v>-77.03023</v>
+      </c>
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
         <v>10</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>21</v>
       </c>
-      <c r="C45">
-        <v>15</v>
-      </c>
-      <c r="D45">
+      <c r="C47">
+        <v>21</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>19</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>38.878694</v>
+      </c>
+      <c r="H47">
+        <v>-77.023054</v>
+      </c>
+      <c r="I47" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47">
         <v>11</v>
       </c>
-      <c r="E45">
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>22</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <v>38.884323</v>
+      </c>
+      <c r="H48">
+        <v>-77.02601</v>
+      </c>
+      <c r="I48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49">
+        <v>25</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>24</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>38.888255</v>
+      </c>
+      <c r="H49">
+        <v>-77.049437</v>
+      </c>
+      <c r="I49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>38.890539</v>
+      </c>
+      <c r="H50">
+        <v>-77.04938300000001</v>
+      </c>
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>47</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>45</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <v>38.886277</v>
+      </c>
+      <c r="H51">
+        <v>-77.02824200000001</v>
+      </c>
+      <c r="I51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>23</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>21</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>38.879819</v>
+      </c>
+      <c r="H52">
+        <v>-77.037413</v>
+      </c>
+      <c r="I52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53">
+        <v>31</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>28</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>38.88412</v>
+      </c>
+      <c r="H53">
+        <v>-77.04657</v>
+      </c>
+      <c r="I53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54">
+        <v>23</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>23</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>38.888553</v>
+      </c>
+      <c r="H54">
+        <v>-77.032427</v>
+      </c>
+      <c r="I54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55">
+        <v>18</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>18</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>38.888097</v>
+      </c>
+      <c r="H55">
+        <v>-77.038325</v>
+      </c>
+      <c r="I55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>11</v>
+      </c>
+      <c r="E56">
         <v>4</v>
       </c>
-      <c r="F45">
+      <c r="F56">
         <v>1</v>
       </c>
-      <c r="G45">
+      <c r="G56">
         <v>38.88044</v>
       </c>
-      <c r="H45">
+      <c r="H56">
         <v>-77.02523600000001</v>
       </c>
-      <c r="I45" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45">
+      <c r="I56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56">
         <v>11</v>
       </c>
     </row>

--- a/GBFS/CaBi-Cherry Blossoms Data.xlsx
+++ b/GBFS/CaBi-Cherry Blossoms Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="33">
   <si>
     <t>station name</t>
   </si>
@@ -52,64 +52,64 @@
     <t>Hains Point/Buckeye &amp; Ohio Dr SW</t>
   </si>
   <si>
+    <t>Lincoln Memorial</t>
+  </si>
+  <si>
+    <t>10th St &amp; L'Enfant Plaza SW</t>
+  </si>
+  <si>
+    <t>USDA / 12th &amp; C St SW</t>
+  </si>
+  <si>
+    <t>Ohio Dr &amp; West Basin Dr SW / MLK &amp; FDR Memorials</t>
+  </si>
+  <si>
+    <t>17th St &amp; Independence Ave SW</t>
+  </si>
+  <si>
+    <t>Jefferson Dr &amp; 14th St SW</t>
+  </si>
+  <si>
+    <t>Henry Bacon Dr &amp; Lincoln Memorial Circle NW</t>
+  </si>
+  <si>
     <t>Jefferson Memorial</t>
   </si>
   <si>
-    <t>USDA / 12th &amp; C St SW</t>
-  </si>
-  <si>
-    <t>Ohio Dr &amp; West Basin Dr SW / MLK &amp; FDR Memorials</t>
-  </si>
-  <si>
-    <t>Jefferson Dr &amp; 14th St SW</t>
-  </si>
-  <si>
-    <t>Henry Bacon Dr &amp; Lincoln Memorial Circle NW</t>
-  </si>
-  <si>
     <t>Maine Ave &amp; 9th St SW</t>
   </si>
   <si>
-    <t>Lincoln Memorial</t>
-  </si>
-  <si>
-    <t>10th St &amp; L'Enfant Plaza SW</t>
-  </si>
-  <si>
-    <t>17th St &amp; Independence Ave SW</t>
-  </si>
-  <si>
     <t>0824a68f-1f3f-11e7-bf6b-3863bb334450</t>
   </si>
   <si>
     <t>0825bb32-1f3f-11e7-bf6b-3863bb334450</t>
   </si>
   <si>
+    <t>08254284-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>08261d9d-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>08249b7f-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>0824e68d-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>082623bf-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>08252260-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
+    <t>0826233f-1f3f-11e7-bf6b-3863bb334450</t>
+  </si>
+  <si>
     <t>082527e7-1f3f-11e7-bf6b-3863bb334450</t>
   </si>
   <si>
-    <t>08249b7f-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>0824e68d-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>08252260-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>0826233f-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
     <t>f33b7c9d-11ff-4059-94e4-4a1206acd7a6</t>
-  </si>
-  <si>
-    <t>08254284-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>08261d9d-1f3f-11e7-bf6b-3863bb334450</t>
-  </si>
-  <si>
-    <t>082623bf-1f3f-11e7-bf6b-3863bb334450</t>
   </si>
   <si>
     <t>2024-03-22</t>
@@ -470,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +519,10 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -537,7 +537,7 @@
         <v>32</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -569,7 +569,7 @@
         <v>32</v>
       </c>
       <c r="J3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -580,28 +580,28 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>38.879819</v>
+        <v>38.888255</v>
       </c>
       <c r="H4">
-        <v>-77.037413</v>
+        <v>-77.049437</v>
       </c>
       <c r="I4" t="s">
         <v>32</v>
       </c>
       <c r="J4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -612,28 +612,28 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>38.886277</v>
+        <v>38.884323</v>
       </c>
       <c r="H5">
-        <v>-77.02824200000001</v>
+        <v>-77.02601</v>
       </c>
       <c r="I5" t="s">
         <v>32</v>
       </c>
       <c r="J5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -644,28 +644,28 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>38.88412</v>
+        <v>38.886277</v>
       </c>
       <c r="H6">
-        <v>-77.04657</v>
+        <v>-77.02824200000001</v>
       </c>
       <c r="I6" t="s">
         <v>32</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -676,28 +676,28 @@
         <v>26</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>31</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>21</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
-        <v>38.888553</v>
+        <v>38.88412</v>
       </c>
       <c r="H7">
-        <v>-77.032427</v>
+        <v>-77.04657</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
       </c>
       <c r="J7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -708,28 +708,28 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>38.890539</v>
+        <v>38.888097</v>
       </c>
       <c r="H8">
-        <v>-77.04938300000001</v>
+        <v>-77.038325</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -740,28 +740,28 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>38.88044</v>
+        <v>38.888553</v>
       </c>
       <c r="H9">
-        <v>-77.02523600000001</v>
+        <v>-77.032427</v>
       </c>
       <c r="I9" t="s">
         <v>32</v>
       </c>
       <c r="J9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -772,28 +772,28 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>38.888255</v>
+        <v>38.890539</v>
       </c>
       <c r="H10">
-        <v>-77.049437</v>
+        <v>-77.04938300000001</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
       </c>
       <c r="J10">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -807,25 +807,25 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>18</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>38.884323</v>
+        <v>38.879819</v>
       </c>
       <c r="H11">
-        <v>-77.02601</v>
+        <v>-77.037413</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
       </c>
       <c r="J11">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -836,60 +836,60 @@
         <v>31</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.888097</v>
+        <v>38.88044</v>
       </c>
       <c r="H12">
-        <v>-77.038325</v>
+        <v>-77.02523600000001</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>38.88044</v>
+        <v>38.878694</v>
       </c>
       <c r="H13">
-        <v>-77.02523600000001</v>
+        <v>-77.023054</v>
       </c>
       <c r="I13" t="s">
         <v>32</v>
       </c>
       <c r="J13">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -903,13 +903,13 @@
         <v>17</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>38.878433</v>
@@ -921,231 +921,231 @@
         <v>32</v>
       </c>
       <c r="J14">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>38.88412</v>
+        <v>38.879819</v>
       </c>
       <c r="H15">
-        <v>-77.04657</v>
+        <v>-77.037413</v>
       </c>
       <c r="I15" t="s">
         <v>32</v>
       </c>
       <c r="J15">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>45</v>
+      </c>
+      <c r="F16">
         <v>6</v>
       </c>
-      <c r="E16">
-        <v>14</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
       <c r="G16">
-        <v>38.878694</v>
+        <v>38.886277</v>
       </c>
       <c r="H16">
-        <v>-77.023054</v>
+        <v>-77.02824200000001</v>
       </c>
       <c r="I16" t="s">
         <v>32</v>
       </c>
       <c r="J16">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
         <v>31</v>
       </c>
-      <c r="C17">
-        <v>18</v>
-      </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>38.888097</v>
+        <v>38.88412</v>
       </c>
       <c r="H17">
-        <v>-77.038325</v>
+        <v>-77.04657</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
       </c>
       <c r="J17">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>23</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>38.884323</v>
+        <v>38.888553</v>
       </c>
       <c r="H18">
-        <v>-77.02601</v>
+        <v>-77.032427</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
       </c>
       <c r="J18">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="G19">
-        <v>38.879819</v>
+        <v>38.890539</v>
       </c>
       <c r="H19">
-        <v>-77.037413</v>
+        <v>-77.04938300000001</v>
       </c>
       <c r="I19" t="s">
         <v>32</v>
       </c>
       <c r="J19">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>38.888553</v>
+        <v>38.88044</v>
       </c>
       <c r="H20">
-        <v>-77.032427</v>
+        <v>-77.02523600000001</v>
       </c>
       <c r="I20" t="s">
         <v>32</v>
       </c>
       <c r="J20">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
         <v>19</v>
       </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
       <c r="F21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>38.890539</v>
+        <v>38.888255</v>
       </c>
       <c r="H21">
-        <v>-77.04938300000001</v>
+        <v>-77.049437</v>
       </c>
       <c r="I21" t="s">
         <v>32</v>
       </c>
       <c r="J21">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1156,636 +1156,636 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>38.886277</v>
+        <v>38.884323</v>
       </c>
       <c r="H22">
-        <v>-77.02824200000001</v>
+        <v>-77.02601</v>
       </c>
       <c r="I22" t="s">
         <v>32</v>
       </c>
       <c r="J22">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
         <v>18</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23">
-        <v>25</v>
-      </c>
       <c r="D23">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>38.888255</v>
+        <v>38.888097</v>
       </c>
       <c r="H23">
-        <v>-77.049437</v>
+        <v>-77.038325</v>
       </c>
       <c r="I23" t="s">
         <v>32</v>
       </c>
       <c r="J23">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>38.888255</v>
+        <v>38.88044</v>
       </c>
       <c r="H24">
-        <v>-77.049437</v>
+        <v>-77.02523600000001</v>
       </c>
       <c r="I24" t="s">
         <v>32</v>
       </c>
       <c r="J24">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>38.884323</v>
+        <v>38.878433</v>
       </c>
       <c r="H25">
-        <v>-77.02601</v>
+        <v>-77.03023</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
       </c>
       <c r="J25">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>38.890539</v>
+        <v>38.88412</v>
       </c>
       <c r="H26">
-        <v>-77.04938300000001</v>
+        <v>-77.04657</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
       </c>
       <c r="J26">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>38.888553</v>
+        <v>38.878694</v>
       </c>
       <c r="H27">
-        <v>-77.032427</v>
+        <v>-77.023054</v>
       </c>
       <c r="I27" t="s">
         <v>32</v>
       </c>
       <c r="J27">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>38.879819</v>
+        <v>38.888097</v>
       </c>
       <c r="H28">
-        <v>-77.037413</v>
+        <v>-77.038325</v>
       </c>
       <c r="I28" t="s">
         <v>32</v>
       </c>
       <c r="J28">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E29">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>38.888097</v>
+        <v>38.884323</v>
       </c>
       <c r="H29">
-        <v>-77.038325</v>
+        <v>-77.02601</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
       </c>
       <c r="J29">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>38.886277</v>
+        <v>38.879819</v>
       </c>
       <c r="H30">
-        <v>-77.02824200000001</v>
+        <v>-77.037413</v>
       </c>
       <c r="I30" t="s">
         <v>32</v>
       </c>
       <c r="J30">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>38.888553</v>
+      </c>
+      <c r="H31">
+        <v>-77.032427</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31">
         <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31">
-        <v>31</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>31</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>38.88412</v>
-      </c>
-      <c r="H31">
-        <v>-77.04657</v>
-      </c>
-      <c r="I31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31">
-        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>38.878433</v>
+        <v>38.890539</v>
       </c>
       <c r="H32">
-        <v>-77.03023</v>
+        <v>-77.04938300000001</v>
       </c>
       <c r="I32" t="s">
         <v>32</v>
       </c>
       <c r="J32">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>47</v>
+      </c>
+      <c r="F33">
         <v>6</v>
       </c>
-      <c r="E33">
+      <c r="G33">
+        <v>38.886277</v>
+      </c>
+      <c r="H33">
+        <v>-77.02824200000001</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33">
         <v>14</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <v>38.878694</v>
-      </c>
-      <c r="H33">
-        <v>-77.023054</v>
-      </c>
-      <c r="I33" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33">
-        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>38.88044</v>
+        <v>38.888255</v>
       </c>
       <c r="H34">
-        <v>-77.02523600000001</v>
+        <v>-77.049437</v>
       </c>
       <c r="I34" t="s">
         <v>32</v>
       </c>
       <c r="J34">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>38.88044</v>
+        <v>38.888255</v>
       </c>
       <c r="H35">
-        <v>-77.02523600000001</v>
+        <v>-77.049437</v>
       </c>
       <c r="I35" t="s">
         <v>32</v>
       </c>
       <c r="J35">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+      <c r="E36">
         <v>11</v>
       </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36">
-        <v>17</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <v>14</v>
-      </c>
       <c r="F36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G36">
-        <v>38.878433</v>
+        <v>38.884323</v>
       </c>
       <c r="H36">
-        <v>-77.03023</v>
+        <v>-77.02601</v>
       </c>
       <c r="I36" t="s">
         <v>32</v>
       </c>
       <c r="J36">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37">
-        <v>38.878694</v>
+        <v>38.890539</v>
       </c>
       <c r="H37">
-        <v>-77.023054</v>
+        <v>-77.04938300000001</v>
       </c>
       <c r="I37" t="s">
         <v>32</v>
       </c>
       <c r="J37">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>23</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>38.888553</v>
+      </c>
+      <c r="H38">
+        <v>-77.032427</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38">
         <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38">
-        <v>47</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>46</v>
-      </c>
-      <c r="F38">
-        <v>6</v>
-      </c>
-      <c r="G38">
-        <v>38.886277</v>
-      </c>
-      <c r="H38">
-        <v>-77.02824200000001</v>
-      </c>
-      <c r="I38" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38">
-        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39">
-        <v>38.888255</v>
+        <v>38.879819</v>
       </c>
       <c r="H39">
-        <v>-77.049437</v>
+        <v>-77.037413</v>
       </c>
       <c r="I39" t="s">
         <v>32</v>
       </c>
       <c r="J39">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>38.884323</v>
+        <v>38.888097</v>
       </c>
       <c r="H40">
-        <v>-77.02601</v>
+        <v>-77.038325</v>
       </c>
       <c r="I40" t="s">
         <v>32</v>
       </c>
       <c r="J40">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G41">
-        <v>38.888097</v>
+        <v>38.886277</v>
       </c>
       <c r="H41">
-        <v>-77.038325</v>
+        <v>-77.02824200000001</v>
       </c>
       <c r="I41" t="s">
         <v>32</v>
       </c>
       <c r="J41">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1796,284 +1796,284 @@
         <v>26</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42">
-        <v>38.888553</v>
+        <v>38.88412</v>
       </c>
       <c r="H42">
-        <v>-77.032427</v>
+        <v>-77.04657</v>
       </c>
       <c r="I42" t="s">
         <v>32</v>
       </c>
       <c r="J42">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>38.879819</v>
+        <v>38.878433</v>
       </c>
       <c r="H43">
-        <v>-77.037413</v>
+        <v>-77.03023</v>
       </c>
       <c r="I43" t="s">
         <v>32</v>
       </c>
       <c r="J43">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G44">
-        <v>38.890539</v>
+        <v>38.878694</v>
       </c>
       <c r="H44">
-        <v>-77.04938300000001</v>
+        <v>-77.023054</v>
       </c>
       <c r="I44" t="s">
         <v>32</v>
       </c>
       <c r="J44">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C45">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>38.88412</v>
+        <v>38.88044</v>
       </c>
       <c r="H45">
-        <v>-77.04657</v>
+        <v>-77.02523600000001</v>
       </c>
       <c r="I45" t="s">
         <v>32</v>
       </c>
       <c r="J45">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>38.878433</v>
+        <v>38.88044</v>
       </c>
       <c r="H46">
-        <v>-77.03023</v>
+        <v>-77.02523600000001</v>
       </c>
       <c r="I46" t="s">
         <v>32</v>
       </c>
       <c r="J46">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C47">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>38.878694</v>
+        <v>38.878433</v>
       </c>
       <c r="H47">
-        <v>-77.023054</v>
+        <v>-77.03023</v>
       </c>
       <c r="I47" t="s">
         <v>32</v>
       </c>
       <c r="J47">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C48">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>38.884323</v>
+        <v>38.878694</v>
       </c>
       <c r="H48">
-        <v>-77.02601</v>
+        <v>-77.023054</v>
       </c>
       <c r="I48" t="s">
         <v>32</v>
       </c>
       <c r="J48">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C49">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G49">
-        <v>38.888255</v>
+        <v>38.886277</v>
       </c>
       <c r="H49">
-        <v>-77.049437</v>
+        <v>-77.02824200000001</v>
       </c>
       <c r="I49" t="s">
         <v>32</v>
       </c>
       <c r="J49">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C50">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E50">
+        <v>22</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>38.888255</v>
+      </c>
+      <c r="H50">
+        <v>-77.049437</v>
+      </c>
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50">
         <v>12</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>38.890539</v>
-      </c>
-      <c r="H50">
-        <v>-77.04938300000001</v>
-      </c>
-      <c r="I50" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50">
-        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2084,100 +2084,100 @@
         <v>24</v>
       </c>
       <c r="C51">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E51">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>38.886277</v>
+        <v>38.884323</v>
       </c>
       <c r="H51">
-        <v>-77.02824200000001</v>
+        <v>-77.02601</v>
       </c>
       <c r="I51" t="s">
         <v>32</v>
       </c>
       <c r="J51">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52">
+        <v>18</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>16</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>38.888097</v>
+      </c>
+      <c r="H52">
+        <v>-77.038325</v>
+      </c>
+      <c r="I52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52">
         <v>12</v>
-      </c>
-      <c r="B52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52">
-        <v>23</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>21</v>
-      </c>
-      <c r="F52">
-        <v>5</v>
-      </c>
-      <c r="G52">
-        <v>38.879819</v>
-      </c>
-      <c r="H52">
-        <v>-77.037413</v>
-      </c>
-      <c r="I52" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52">
-        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C53">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>38.88412</v>
+        <v>38.888553</v>
       </c>
       <c r="H53">
-        <v>-77.04657</v>
+        <v>-77.032427</v>
       </c>
       <c r="I53" t="s">
         <v>32</v>
       </c>
       <c r="J53">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C54">
         <v>23</v>
@@ -2186,85 +2186,437 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G54">
-        <v>38.888553</v>
+        <v>38.879819</v>
       </c>
       <c r="H54">
-        <v>-77.032427</v>
+        <v>-77.037413</v>
       </c>
       <c r="I54" t="s">
         <v>32</v>
       </c>
       <c r="J54">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C55">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F55">
         <v>5</v>
       </c>
       <c r="G55">
-        <v>38.888097</v>
+        <v>38.890539</v>
       </c>
       <c r="H55">
-        <v>-77.038325</v>
+        <v>-77.04938300000001</v>
       </c>
       <c r="I55" t="s">
         <v>32</v>
       </c>
       <c r="J55">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56">
+        <v>31</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>38.88412</v>
+      </c>
+      <c r="H56">
+        <v>-77.04657</v>
+      </c>
+      <c r="I56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57">
         <v>17</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>14</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>38.878433</v>
+      </c>
+      <c r="H57">
+        <v>-77.03023</v>
+      </c>
+      <c r="I57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>21</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>19</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>38.878694</v>
+      </c>
+      <c r="H58">
+        <v>-77.023054</v>
+      </c>
+      <c r="I58" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59">
+        <v>23</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>22</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59">
+        <v>38.884323</v>
+      </c>
+      <c r="H59">
+        <v>-77.02601</v>
+      </c>
+      <c r="I59" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60">
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>24</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>38.888255</v>
+      </c>
+      <c r="H60">
+        <v>-77.049437</v>
+      </c>
+      <c r="I60" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61">
+        <v>19</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>12</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>38.890539</v>
+      </c>
+      <c r="H61">
+        <v>-77.04938300000001</v>
+      </c>
+      <c r="I61" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>47</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>45</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>38.886277</v>
+      </c>
+      <c r="H62">
+        <v>-77.02824200000001</v>
+      </c>
+      <c r="I62" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63">
+        <v>23</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>21</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>38.879819</v>
+      </c>
+      <c r="H63">
+        <v>-77.037413</v>
+      </c>
+      <c r="I63" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64">
+        <v>31</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
         <v>28</v>
       </c>
-      <c r="C56">
-        <v>15</v>
-      </c>
-      <c r="D56">
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>38.88412</v>
+      </c>
+      <c r="H64">
+        <v>-77.04657</v>
+      </c>
+      <c r="I64" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64">
         <v>11</v>
       </c>
-      <c r="E56">
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65">
+        <v>23</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>23</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>38.888553</v>
+      </c>
+      <c r="H65">
+        <v>-77.032427</v>
+      </c>
+      <c r="I65" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66">
+        <v>18</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>18</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>38.888097</v>
+      </c>
+      <c r="H66">
+        <v>-77.038325</v>
+      </c>
+      <c r="I66" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67">
+        <v>15</v>
+      </c>
+      <c r="D67">
+        <v>11</v>
+      </c>
+      <c r="E67">
         <v>4</v>
       </c>
-      <c r="F56">
+      <c r="F67">
         <v>1</v>
       </c>
-      <c r="G56">
+      <c r="G67">
         <v>38.88044</v>
       </c>
-      <c r="H56">
+      <c r="H67">
         <v>-77.02523600000001</v>
       </c>
-      <c r="I56" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56">
+      <c r="I67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67">
         <v>11</v>
       </c>
     </row>
